--- a/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2401508722920657</v>
+        <v>0.2408662038780819</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.443558754857777</v>
+        <v>0.4394408728522496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3679420609103553</v>
+        <v>0.3652557762002409</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3082128925542634</v>
+        <v>0.3097180882186137</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4952027911846673</v>
+        <v>0.4969605510479333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4118486247186869</v>
+        <v>0.4118261512246735</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1118670087625787</v>
+        <v>0.1107663363687929</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.219012287996282</v>
+        <v>0.2175322818396701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1667577624146958</v>
+        <v>0.166930900924208</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1412560814997816</v>
+        <v>0.1385887463004568</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2533439999941345</v>
+        <v>0.2517334279014153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1896383368381786</v>
+        <v>0.1894361207460969</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08448502849819606</v>
+        <v>0.08448502849819604</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2090682679734295</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06547343877302886</v>
+        <v>0.06667156995384392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1829224786109794</v>
+        <v>0.1826105671949737</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1307116485912343</v>
+        <v>0.1313868144801841</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1083411793149861</v>
+        <v>0.1093402713788628</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2366907299042497</v>
+        <v>0.235277222609467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1652852731256394</v>
+        <v>0.166527568732697</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1409777476764339</v>
+        <v>0.140977747676434</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2811331443851533</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2130626008958966</v>
+        <v>0.2130626008958967</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.12886926777823</v>
+        <v>0.1296316633300728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2677885690704904</v>
+        <v>0.2675714724218982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.20467227796627</v>
+        <v>0.2049630068370479</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1536512933851401</v>
+        <v>0.1532997006910746</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2948274308555304</v>
+        <v>0.2940575226369863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2230513507994096</v>
+        <v>0.2232014092589332</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>138934</v>
+        <v>139348</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>364622</v>
+        <v>361237</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>515328</v>
+        <v>511565</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>178310</v>
+        <v>179181</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>407076</v>
+        <v>408520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>576822</v>
+        <v>576790</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>249527</v>
+        <v>247072</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>475562</v>
+        <v>472348</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>734061</v>
+        <v>734823</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>315081</v>
+        <v>309131</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>550109</v>
+        <v>546612</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>834780</v>
+        <v>833890</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46590</v>
+        <v>47443</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>134426</v>
+        <v>134196</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>189070</v>
+        <v>190046</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>77094</v>
+        <v>77805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>173939</v>
+        <v>172900</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>239079</v>
+        <v>240876</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>453708</v>
+        <v>456392</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>998398</v>
+        <v>997589</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1483667</v>
+        <v>1485775</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>540957</v>
+        <v>539720</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1099207</v>
+        <v>1096337</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1616897</v>
+        <v>1617985</v>
       </c>
     </row>
     <row r="20">
